--- a/src/assets/excel/teacher_model.xlsx
+++ b/src/assets/excel/teacher_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\CLIENT GPA\src\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -384,7 +384,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" x14ac:dyDescent="0.55000000000000004"/>
@@ -420,7 +420,7 @@
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
-      <formula1>"D,D+,C,C+,B,B+,A"</formula1>
+      <formula1>"D,D+,C,C+,B,B+,A,F,S,U"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
